--- a/templates/Hackathon_sample_sheets.xlsx
+++ b/templates/Hackathon_sample_sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D0C42-61B9-431B-A8E1-B70FB2FF34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F608C-CDA9-467F-A5E8-00B6AD2AE70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{D3EB6A5A-F5C7-441F-91D4-3808AE23C83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample information" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,88 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AFAC9482-5B1B-4047-96FF-8E343FAFAA16}</author>
+    <author>tc={378D63A7-4B55-4EC7-AC00-DCA67A86B4A3}</author>
+    <author>tc={46B5F1FA-A49E-4609-9A85-F43E892222E4}</author>
+    <author>tc={8DC5B03A-A150-4C9A-8134-CAC922482A26}</author>
+    <author>tc={0E4B40E6-3AA6-4BC6-BAC6-64536A89B2DC}</author>
+    <author>tc={2DB4CE41-E6E9-4A01-8E91-48AD04EC602A}</author>
+    <author>tc={A2955A8A-2890-4BF1-AE51-8090DC2E0721}</author>
+    <author>tc={3E4D436F-64AB-4B66-BF16-859DD6CAEB18}</author>
+    <author>tc={5C4C7881-A516-4297-91A6-C38AA950E52D}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AFAC9482-5B1B-4047-96FF-8E343FAFAA16}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=bac2606c-ac54-4abf-8a76-257bdc777e4d</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{378D63A7-4B55-4EC7-AC00-DCA67A86B4A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{46B5F1FA-A49E-4609-9A85-F43E892222E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{8DC5B03A-A150-4C9A-8134-CAC922482A26}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{0E4B40E6-3AA6-4BC6-BAC6-64536A89B2DC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{2DB4CE41-E6E9-4A01-8E91-48AD04EC602A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A2955A8A-2890-4BF1-AE51-8090DC2E0721}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{3E4D436F-64AB-4B66-BF16-859DD6CAEB18}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{5C4C7881-A516-4297-91A6-C38AA950E52D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Source Name</t>
   </si>
@@ -153,9 +225,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -213,18 +282,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>bac2606c-ac54-4abf-8a76-257bdc777e4d</t>
   </si>
   <si>
@@ -256,6 +313,18 @@
   </si>
   <si>
     <t>MAdLand metadata temp sheet (heckathon)</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
@@ -289,7 +358,7 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -442,8 +511,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,6 +529,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kevin F" id="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
   <person displayName="Fabian Haas" id="{91B236F7-0BBC-4238-A7F9-546FC5ED5AB1}" userId="b3b1f7033b8df0eb" providerId="Windows Live"/>
 </personList>
 </file>
@@ -500,7 +570,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -802,6 +872,30 @@
   <threadedComment ref="A1" dT="2021-12-15T13:25:31.40" personId="{91B236F7-0BBC-4238-A7F9-546FC5ED5AB1}" id="{777CD677-C563-4084-BEBD-90E5A235239A}" parentId="{AFAC9482-5B1B-4047-96FF-8E343FAFAA16}">
     <text>id=bac2606c-ac54-4abf-8a76-257bdc777e4d</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{378D63A7-4B55-4EC7-AC00-DCA67A86B4A3}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{46B5F1FA-A49E-4609-9A85-F43E892222E4}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{8DC5B03A-A150-4C9A-8134-CAC922482A26}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{0E4B40E6-3AA6-4BC6-BAC6-64536A89B2DC}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{2DB4CE41-E6E9-4A01-8E91-48AD04EC602A}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{A2955A8A-2890-4BF1-AE51-8090DC2E0721}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{3E4D436F-64AB-4B66-BF16-859DD6CAEB18}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{D1A72D33-19E9-4AEE-8979-E805FD052EF3}" id="{5C4C7881-A516-4297-91A6-C38AA950E52D}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -844,7 +938,7 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -1020,16 +1114,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572684A2-9E71-42AD-9F7C-B33D71D1EB3B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,7 +1140,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,42 +1156,42 @@
         <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1105,78 +1200,84 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>63</v>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1198,37 +1299,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{063B4D39-1FCE-4D29-B7A9-0F34FEF08B10}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{063B4D39-1FCE-4D29-B7A9-0F34FEF08B10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
